--- a/biology/Botanique/Dasypogonaceae/Dasypogonaceae.xlsx
+++ b/biology/Botanique/Dasypogonaceae/Dasypogonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dasypogonaceae (les Dasypogonacées) sont une famille de plantes à fleurs monocotylédones qui comprend moins de 20 espèces réparties en 4 à 8 genres. Ce sont des plantes herbacées ou « arborescentes », rhizomateuses, des zones arides d'Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Dasypogon qui vient du grec δασυς / dasys, poilu, et πωγων / pogon, barbe[1], signifiant « barbe hirsute », en référence à l'aspect de la plante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Dasypogon qui vient du grec δασυς / dasys, poilu, et πωγων / pogon, barbe, signifiant « barbe hirsute », en référence à l'aspect de la plante.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2], cette famille n'existe pas : ces plantes sont assignées aux Xanthorrhoeacées.
-La classification phylogénétique APG III (2009)[3] situe la divergence de cette famille au niveau des Commelinidées.
-La classification phylogénétique APG IV (2016)[4] rattache cette famille à l'ordre des Arecales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existe pas : ces plantes sont assignées aux Xanthorrhoeacées.
+La classification phylogénétique APG III (2009) situe la divergence de cette famille au niveau des Commelinidées.
+La classification phylogénétique APG IV (2016) rattache cette famille à l'ordre des Arecales.
 Cette famille est rapprochée des Lomandracées par certains auteurs[Qui ?].
 </t>
         </is>
@@ -576,14 +592,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 janvier 2017)[5], Angiosperm Phylogeny Website                        (17 janvier 2017)[6] et NCBI  (17 janvier 2017)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 janvier 2017), Angiosperm Phylogeny Website                        (17 janvier 2017) et NCBI  (17 janvier 2017) :
 genre Baxteria  R.Br. ex Hook. (1843)
 genre Calectasia  R.Br. (1810)
 genre Dasypogon  R.Br. (1810)
 genre Kingia  R.Br. (1826)
-Selon DELTA Angio           (17 janvier 2017)[8] :
+Selon DELTA Angio           (17 janvier 2017) :
 genre Acanthocarpus
 genre Baxteria
 genre Chamaexeros
@@ -619,9 +637,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 janvier 2017)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 janvier 2017) :
 genre Baxteria  R.Br. ex Hook. (1843)
 Baxteria australis  R.Br. ex Hook. (1843)
 genre Calectasia  R.Br. (1810)
@@ -642,7 +662,7 @@
 Dasypogon obliquifolius  Lehm. ex Nees (1846)
 genre Kingia  R.Br. (1826)
 Kingia australis  R.Br. (1826)
-Selon NCBI  (17 janvier 2017)[7] :
+Selon NCBI  (17 janvier 2017) :
 genre Baxteria
 Baxteria australis
 genre Calectasia
